--- a/Excel.TemplateEngine.Tests/ObjectPrintingTests/Files/complexTemplate.xlsx
+++ b/Excel.TemplateEngine.Tests/ObjectPrintingTests/Files/complexTemplate.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="230" windowWidth="14810" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
@@ -174,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -186,6 +186,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -196,6 +199,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -244,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,7 +285,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,20 +496,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" customWidth="1"/>
+    <col min="3" max="3" width="34.81640625" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -513,7 +517,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -522,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -538,7 +542,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -554,7 +558,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -570,7 +574,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -583,24 +587,24 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -609,7 +613,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -617,7 +621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -625,7 +629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
@@ -635,12 +639,12 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
@@ -648,7 +652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -656,56 +660,56 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -714,5 +718,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>